--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130F47B-61FF-4863-B8AA-2C2D112D8EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC698ECA-131B-4DAF-AA1A-9726D423F34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29898,8 +29898,8 @@
   <dimension ref="A1:Z215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35349,7 +35349,7 @@
       <c r="A70" s="50" t="s">
         <v>690</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="30" t="s">
         <v>115</v>
       </c>
       <c r="C70" s="72" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC698ECA-131B-4DAF-AA1A-9726D423F34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F05BDC-BCE0-4A8B-9D28-91B4D1AFDDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29899,7 +29899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
